--- a/layout_mercado.xlsx
+++ b/layout_mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\supermarket_gps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9972F5-7601-4767-93D4-0BBFF13C11D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4548A-60EC-42E9-9466-062C1B13B245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{0FB22B6A-42C6-4F7A-BEA2-C938190A65D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Área</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Mapa do Supermercado "Tem de Tudo"</t>
+  </si>
+  <si>
+    <t>Caixas</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -290,13 +293,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,7 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -321,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -344,6 +383,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +733,7 @@
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:R17"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,317 +769,215 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="12" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="H4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="8"/>
+      <c r="C10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="8"/>
+      <c r="C14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="8"/>
+      <c r="C15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="8"/>
+      <c r="C16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="12" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="I18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="8"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="8"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="8"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
+      <c r="C23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -1154,7 +1100,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="D4:F6"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H4:J6"/>
     <mergeCell ref="E18:G20"/>
     <mergeCell ref="I18:K20"/>
     <mergeCell ref="K8:K11"/>
@@ -1163,12 +1116,6 @@
     <mergeCell ref="G13:G16"/>
     <mergeCell ref="I13:I16"/>
     <mergeCell ref="K13:K16"/>
-    <mergeCell ref="D4:F6"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H4:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
